--- a/Test_File/Test_Case.xlsx
+++ b/Test_File/Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/Previously Relocated Items/Security/Python_Frame/Test_File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C8713-93C4-D74F-80DC-75D16F67CEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D791AA1-73DD-D847-9BF3-4252EC4079F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21300" yWindow="-42740" windowWidth="76800" windowHeight="42740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="127">
   <si>
     <t>用例名称</t>
   </si>
@@ -475,6 +475,21 @@
   </si>
   <si>
     <t>{"admin_name":"qsmjyy","password":"1"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":""}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>{"admin_name":"hang0813022","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"associateid":"1","associatefield":"token,menu_name"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -684,18 +699,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -729,17 +732,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1095,11 +1110,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1124,9 +1139,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1151,15 +1166,15 @@
       <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="14"/>
@@ -3083,8 +3098,8 @@
   </sheetPr>
   <dimension ref="A1:AW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="H1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3096,7 +3111,7 @@
     <col min="5" max="5" width="60.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="43" style="13" customWidth="1"/>
-    <col min="8" max="8" width="140.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="140.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -3121,15 +3136,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="14"/>
       <c r="J1" s="4"/>
       <c r="K1" s="14"/>
@@ -3152,13 +3167,13 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="14"/>
       <c r="J2" s="4"/>
       <c r="K2" s="14"/>
@@ -3188,8 +3203,8 @@
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="14"/>
       <c r="J3" s="4"/>
       <c r="K3" s="14"/>
@@ -3230,7 +3245,7 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -3310,12 +3325,12 @@
       <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="34"/>
+      <c r="H5" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="27"/>
       <c r="J5" s="10"/>
-      <c r="L5" s="30"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="3" t="s">
         <v>8</v>
       </c>
@@ -3363,13 +3378,13 @@
       <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="19" t="s">
         <v>98</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="10"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -3419,12 +3434,12 @@
       <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="19" t="s">
         <v>98</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -3468,10 +3483,10 @@
       <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>108</v>
       </c>
       <c r="I8" s="3"/>
@@ -3479,7 +3494,7 @@
       <c r="K8" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -3517,10 +3532,10 @@
       <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>108</v>
       </c>
       <c r="I9" s="3"/>
@@ -3528,7 +3543,7 @@
       <c r="K9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="L9" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -3566,10 +3581,10 @@
       <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="19" t="s">
         <v>108</v>
       </c>
       <c r="I10" s="3"/>
@@ -3577,7 +3592,7 @@
       <c r="K10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -3604,7 +3619,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="26"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="3"/>
       <c r="J11" s="10"/>
       <c r="K11" s="3"/>
@@ -3738,8 +3753,8 @@
   </sheetPr>
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -3749,12 +3764,12 @@
     <col min="4" max="4" width="30.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="73.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="90.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.33203125" style="18" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="9" customWidth="1"/>
@@ -3775,11 +3790,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3787,7 +3802,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="20"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -3806,9 +3821,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3816,7 +3831,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="20"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3835,11 +3850,11 @@
       <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3847,7 +3862,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3896,7 +3911,7 @@
       <c r="K4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="17" t="s">
         <v>95</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -4075,7 +4090,9 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="M7" s="3" t="s">
         <v>63</v>
       </c>
@@ -4099,58 +4116,110 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="3"/>
@@ -4271,7 +4340,7 @@
     </row>
     <row r="23" spans="4:25" s="1" customFormat="1">
       <c r="D23" s="9"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="18"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -4286,7 +4355,7 @@
     </row>
     <row r="24" spans="4:25" s="1" customFormat="1">
       <c r="D24" s="9"/>
-      <c r="L24" s="22"/>
+      <c r="L24" s="18"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -4301,7 +4370,7 @@
     </row>
     <row r="25" spans="4:25" s="1" customFormat="1">
       <c r="D25" s="9"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="18"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -4316,7 +4385,7 @@
     </row>
     <row r="26" spans="4:25" s="1" customFormat="1">
       <c r="D26" s="9"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="18"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -4331,7 +4400,7 @@
     </row>
     <row r="27" spans="4:25" s="1" customFormat="1">
       <c r="D27" s="9"/>
-      <c r="L27" s="22"/>
+      <c r="L27" s="18"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -4346,7 +4415,7 @@
     </row>
     <row r="28" spans="4:25" s="1" customFormat="1">
       <c r="D28" s="9"/>
-      <c r="L28" s="22"/>
+      <c r="L28" s="18"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -4361,7 +4430,7 @@
     </row>
     <row r="29" spans="4:25" s="1" customFormat="1">
       <c r="D29" s="9"/>
-      <c r="L29" s="22"/>
+      <c r="L29" s="18"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -4376,7 +4445,7 @@
     </row>
     <row r="30" spans="4:25" s="1" customFormat="1">
       <c r="D30" s="9"/>
-      <c r="L30" s="22"/>
+      <c r="L30" s="18"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -4391,7 +4460,7 @@
     </row>
     <row r="31" spans="4:25" s="1" customFormat="1">
       <c r="D31" s="9"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="18"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -4406,7 +4475,7 @@
     </row>
     <row r="32" spans="4:25" s="1" customFormat="1">
       <c r="D32" s="9"/>
-      <c r="L32" s="22"/>
+      <c r="L32" s="18"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -4421,7 +4490,7 @@
     </row>
     <row r="33" spans="4:25" s="1" customFormat="1">
       <c r="D33" s="9"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="18"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -4436,7 +4505,7 @@
     </row>
     <row r="34" spans="4:25" s="1" customFormat="1">
       <c r="D34" s="9"/>
-      <c r="L34" s="22"/>
+      <c r="L34" s="18"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -4451,7 +4520,7 @@
     </row>
     <row r="35" spans="4:25" s="1" customFormat="1">
       <c r="D35" s="9"/>
-      <c r="L35" s="22"/>
+      <c r="L35" s="18"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -4466,7 +4535,7 @@
     </row>
     <row r="36" spans="4:25" s="1" customFormat="1">
       <c r="D36" s="9"/>
-      <c r="L36" s="22"/>
+      <c r="L36" s="18"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -4481,7 +4550,7 @@
     </row>
     <row r="37" spans="4:25" s="1" customFormat="1">
       <c r="D37" s="9"/>
-      <c r="L37" s="22"/>
+      <c r="L37" s="18"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -4496,7 +4565,7 @@
     </row>
     <row r="38" spans="4:25" s="1" customFormat="1">
       <c r="D38" s="9"/>
-      <c r="L38" s="22"/>
+      <c r="L38" s="18"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -4511,7 +4580,7 @@
     </row>
     <row r="39" spans="4:25" s="1" customFormat="1">
       <c r="D39" s="9"/>
-      <c r="L39" s="22"/>
+      <c r="L39" s="18"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -4526,7 +4595,7 @@
     </row>
     <row r="40" spans="4:25" s="1" customFormat="1">
       <c r="D40" s="9"/>
-      <c r="L40" s="22"/>
+      <c r="L40" s="18"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -4541,7 +4610,7 @@
     </row>
     <row r="41" spans="4:25" s="1" customFormat="1">
       <c r="D41" s="9"/>
-      <c r="L41" s="22"/>
+      <c r="L41" s="18"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
@@ -4556,7 +4625,7 @@
     </row>
     <row r="42" spans="4:25" s="1" customFormat="1">
       <c r="D42" s="9"/>
-      <c r="L42" s="22"/>
+      <c r="L42" s="18"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -4571,7 +4640,7 @@
     </row>
     <row r="43" spans="4:25" s="1" customFormat="1">
       <c r="D43" s="9"/>
-      <c r="L43" s="22"/>
+      <c r="L43" s="18"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -4586,7 +4655,7 @@
     </row>
     <row r="44" spans="4:25" s="1" customFormat="1">
       <c r="D44" s="9"/>
-      <c r="L44" s="22"/>
+      <c r="L44" s="18"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -4601,7 +4670,7 @@
     </row>
     <row r="45" spans="4:25" s="1" customFormat="1">
       <c r="D45" s="9"/>
-      <c r="L45" s="22"/>
+      <c r="L45" s="18"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
@@ -4622,7 +4691,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8:K10" xr:uid="{C1A9F133-D94D-3347-BE2B-1CFD37F17819}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10" xr:uid="{C1A9F133-D94D-3347-BE2B-1CFD37F17819}">
       <formula1>$AW$4:$AW$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -4631,6 +4700,8 @@
     <hyperlink ref="E6" r:id="rId2" xr:uid="{4D5D2F74-D50E-6E41-8754-4D8882E0B77D}"/>
     <hyperlink ref="E7" r:id="rId3" xr:uid="{5FE2211B-3152-6243-B220-7B1F04D34E0A}"/>
     <hyperlink ref="B3" r:id="rId4" display="http://106.52.206.103:30021" xr:uid="{24503329-07E8-0B42-9329-B79DAA84D68B}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{805E195F-B055-0D4E-B47E-5A0A5FACB061}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{1B22147F-F622-9D48-ABA5-BEFFF3432CF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
@@ -4678,7 +4749,7 @@
     <col min="9" max="9" width="52" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.5" style="9" customWidth="1"/>
@@ -4699,11 +4770,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -4711,7 +4782,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="20"/>
+      <c r="L1" s="16"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -4730,9 +4801,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -4740,7 +4811,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="20"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -4759,11 +4830,11 @@
       <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -4771,7 +4842,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -4820,7 +4891,7 @@
       <c r="K4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="17" t="s">
         <v>95</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -5195,7 +5266,7 @@
     </row>
     <row r="23" spans="4:25" s="1" customFormat="1">
       <c r="D23" s="9"/>
-      <c r="L23" s="22"/>
+      <c r="L23" s="18"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -5210,7 +5281,7 @@
     </row>
     <row r="24" spans="4:25" s="1" customFormat="1">
       <c r="D24" s="9"/>
-      <c r="L24" s="22"/>
+      <c r="L24" s="18"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -5225,7 +5296,7 @@
     </row>
     <row r="25" spans="4:25" s="1" customFormat="1">
       <c r="D25" s="9"/>
-      <c r="L25" s="22"/>
+      <c r="L25" s="18"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -5240,7 +5311,7 @@
     </row>
     <row r="26" spans="4:25" s="1" customFormat="1">
       <c r="D26" s="9"/>
-      <c r="L26" s="22"/>
+      <c r="L26" s="18"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -5255,7 +5326,7 @@
     </row>
     <row r="27" spans="4:25" s="1" customFormat="1">
       <c r="D27" s="9"/>
-      <c r="L27" s="22"/>
+      <c r="L27" s="18"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -5270,7 +5341,7 @@
     </row>
     <row r="28" spans="4:25" s="1" customFormat="1">
       <c r="D28" s="9"/>
-      <c r="L28" s="22"/>
+      <c r="L28" s="18"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -5285,7 +5356,7 @@
     </row>
     <row r="29" spans="4:25" s="1" customFormat="1">
       <c r="D29" s="9"/>
-      <c r="L29" s="22"/>
+      <c r="L29" s="18"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -5300,7 +5371,7 @@
     </row>
     <row r="30" spans="4:25" s="1" customFormat="1">
       <c r="D30" s="9"/>
-      <c r="L30" s="22"/>
+      <c r="L30" s="18"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -5315,7 +5386,7 @@
     </row>
     <row r="31" spans="4:25" s="1" customFormat="1">
       <c r="D31" s="9"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="18"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -5330,7 +5401,7 @@
     </row>
     <row r="32" spans="4:25" s="1" customFormat="1">
       <c r="D32" s="9"/>
-      <c r="L32" s="22"/>
+      <c r="L32" s="18"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -5345,7 +5416,7 @@
     </row>
     <row r="33" spans="4:25" s="1" customFormat="1">
       <c r="D33" s="9"/>
-      <c r="L33" s="22"/>
+      <c r="L33" s="18"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -5360,7 +5431,7 @@
     </row>
     <row r="34" spans="4:25" s="1" customFormat="1">
       <c r="D34" s="9"/>
-      <c r="L34" s="22"/>
+      <c r="L34" s="18"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -5375,7 +5446,7 @@
     </row>
     <row r="35" spans="4:25" s="1" customFormat="1">
       <c r="D35" s="9"/>
-      <c r="L35" s="22"/>
+      <c r="L35" s="18"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -5390,7 +5461,7 @@
     </row>
     <row r="36" spans="4:25" s="1" customFormat="1">
       <c r="D36" s="9"/>
-      <c r="L36" s="22"/>
+      <c r="L36" s="18"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -5405,7 +5476,7 @@
     </row>
     <row r="37" spans="4:25" s="1" customFormat="1">
       <c r="D37" s="9"/>
-      <c r="L37" s="22"/>
+      <c r="L37" s="18"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -5420,7 +5491,7 @@
     </row>
     <row r="38" spans="4:25" s="1" customFormat="1">
       <c r="D38" s="9"/>
-      <c r="L38" s="22"/>
+      <c r="L38" s="18"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
@@ -5435,7 +5506,7 @@
     </row>
     <row r="39" spans="4:25" s="1" customFormat="1">
       <c r="D39" s="9"/>
-      <c r="L39" s="22"/>
+      <c r="L39" s="18"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -5450,7 +5521,7 @@
     </row>
     <row r="40" spans="4:25" s="1" customFormat="1">
       <c r="D40" s="9"/>
-      <c r="L40" s="22"/>
+      <c r="L40" s="18"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -5465,7 +5536,7 @@
     </row>
     <row r="41" spans="4:25" s="1" customFormat="1">
       <c r="D41" s="9"/>
-      <c r="L41" s="22"/>
+      <c r="L41" s="18"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
@@ -5480,7 +5551,7 @@
     </row>
     <row r="42" spans="4:25" s="1" customFormat="1">
       <c r="D42" s="9"/>
-      <c r="L42" s="22"/>
+      <c r="L42" s="18"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -5495,7 +5566,7 @@
     </row>
     <row r="43" spans="4:25" s="1" customFormat="1">
       <c r="D43" s="9"/>
-      <c r="L43" s="22"/>
+      <c r="L43" s="18"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -5510,7 +5581,7 @@
     </row>
     <row r="44" spans="4:25" s="1" customFormat="1">
       <c r="D44" s="9"/>
-      <c r="L44" s="22"/>
+      <c r="L44" s="18"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
@@ -5525,7 +5596,7 @@
     </row>
     <row r="45" spans="4:25" s="1" customFormat="1">
       <c r="D45" s="9"/>
-      <c r="L45" s="22"/>
+      <c r="L45" s="18"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>

--- a/Test_File/Test_Case.xlsx
+++ b/Test_File/Test_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edz/Documents/Python_Frame/Test_File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D177BE-489A-A64A-80E4-C1AAD66C2F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB7BDE-8BDE-1146-A2FF-5DE747EFFB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,14 @@
     <sheet name="双屏机接口冒烟2" sheetId="5" r:id="rId5"/>
     <sheet name="POS机接口冒烟" sheetId="6" r:id="rId6"/>
     <sheet name="商户后台接口冒烟" sheetId="7" r:id="rId7"/>
+    <sheet name="商户后台接口冒烟2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="356">
   <si>
     <t>用例名称</t>
   </si>
@@ -976,57 +977,126 @@
     <t>0.724</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '1344', 'admin_name': 'hang0813', 'real_name': '王杭-智慧第一', 'admin_type': '2', 'mobile': '15672655599', 'head_img': '', 'qr_img': '', 'introduce': '', 'last_login_time': '1606739840', 'status': '1', 'create_time': '1605592984', 'update_time': '1606739840', 'token': 'fdeb1b4bda31eeb1b822cc4d96933a4c8a39da94', 'theme_config': {'platform_name': '能链云', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 416, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'menu_name': '创建优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add-', 'leve': 5}, {'menu_id': '401', 'menu_type': '2', 'parent_id': '297', 'menu_name': '营销工具', 'menu_path': '', 'vue_path': 'activity_add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add', 'leve': 4}, {'menu_id': '301', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建价立减', 'menu_path': '', 'vue_path': 'cut', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-cut', 'leve': 5}, {'menu_id': '302', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额送', 'menu_path': '', 'vue_path': 'reward', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-reward', 'leve': 5}, {'menu_id': '303', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建幸运抽奖', 'menu_path': '', 'vue_path': 'lucky', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-lucky', 'leve': 5}, {'menu_id': '304', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建免单', 'menu_path': '', 'vue_path': 'free', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-free', 'leve': 5}, {'menu_id': '305', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建好友邀请', 'menu_path': '', 'vue_path': 'invite', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-invite', 'leve': 5}, {'menu_id': '562', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建红包', 'menu_path': '', 'vue_path': 'redpacketadd', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-redpacketadd', 'leve': 5}, {'menu_id': '672', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建手动发券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '712', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建满额减', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '758', 'menu_type': '2', 'parent_id': '401', 'menu_name': '创建充值送券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-activity_add-', 'leve': 5}, {'menu_id': '560', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list', 'leve': 3}, {'menu_id': '402', 'menu_type': '2', 'parent_id': '560', 'menu_name': '活动列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list', 'leve': 4}, {'menu_id': '578', 'menu_type': '2', 'parent_id': '402', 'menu_name': '查看详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-list-list-', 'leve': 5}, {'menu_id': '887', 'menu_type': '2', 'parent_id': '402', 'menu_nam</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>{'status': 200, 'info': 'ok', 'reason': '', 'data': [{'id': '2945', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '1号枪', 'gun_number': '1', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2946', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '2号枪', 'gun_number': '2', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '1', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2947', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '3号枪', 'gun_number': '3', 'gun_type': '1001', 'energy_id': '1406', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-50#车用柴油', 'energy_number': '-50', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3066', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '4号枪', 'gun_number': '4', 'gun_type': '1001', 'energy_id': '1404', 'group_num': '', 'status': '1', 'price': '1900', 'admin_id': '1', 'start_time': '1600963200', 'energy_name': '-20#车用柴油', 'energy_number': '-20', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '299', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '5号枪', 'gun_number': '5', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '1', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2965', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '6号枪', 'gun_number': '6', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '301', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '7号枪', 'gun_number': '7', 'gun_type': '1001', 'energy_id': '2002', 'group_num': '1', 'status': '1', 'price': '39000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '97#车用汽油', 'energy_number': '97', 'energy_type': '1', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '302', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '8号枪', 'gun_number': '8', 'gun_type': '1001', 'energy_id': '2002', 'group_num': '1', 'status': '1', 'price': '39000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '97#车用汽油', 'energy_number': '97', 'energy_type': '1', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2985', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '9号枪', 'gun_number': '9', 'gun_type': '1001', 'energy_id': '2003', 'group_num': '', 'status': '1', 'price': '33200', 'admin_id': '1', 'start_time': '1603717862', 'energy_name': '92#车用汽油', 'energy_number': '92', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2949', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '10号枪', 'gun_number': '10', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2950', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '11号枪', 'gun_number': '11', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '1', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2987', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '12号枪', 'gun_number': '12', 'gun_type': '1001', 'energy_id': '1602', 'group_num': '', 'status': '1', 'price': '41900', 'admin_id': '1', 'start_time': '1603712349', 'energy_name': '0#车用柴油', 'energy_number': '0', 'energy_type': '2', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '2951', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '13号枪', 'gun_number': '13', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '1', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2952', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '14号枪', 'gun_number': '14', 'gun_type': '1001', 'energy_id': '2026', 'group_num': '1', 'status': '1', 'price': '34500', 'admin_id': '1', 'start_time': '1603717052', 'energy_name': 'CNG', 'energy_number': 'CNG', 'energy_type': '3', 'unit': 'm³', 'standard_name': '天然气', 'icon_url': '', 'type_name': '天然气', 'type_id': '3', 'retail_status': 1}, {'id': '2986', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '15号枪', 'gun_number': '15', 'gun_type': '1001', 'energy_id': '1601', 'group_num': '', 'status': '1', 'price': '20000', 'admin_id': '1', 'start_time': '1603715289', 'energy_name': '10#车用柴油', 'energy_number': '10', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '2955', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '16号枪', 'gun_number': '16', 'gun_type': '1001', 'energy_id': '2025', 'group_num': '', 'status': '1', 'price': '53500', 'admin_id': '1', 'start_time': '1603717052', 'energy_name': 'LNG', 'energy_number': 'LNG', 'energy_type': '6', 'unit': 'kg', 'standard_name': '天然气', 'icon_url': '', 'type_name': '尿素', 'type_id': '6', 'retail_status': 1}, {'id': '2957', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '17号枪', 'gun_number': '17', 'gun_type': '1001', 'energy_id': '400', 'group_num': '', 'status': '1', 'retail_status': 1}, {'id': '3029', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '18号枪', 'gun_number': '18', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3071', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '19号枪', 'gun_number': '19', 'gun_type': '1001', 'energy_id': '2005', 'group_num': '', 'status': '1', 'price': '19000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '98#车用汽油', 'energy_number': '98', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}, {'id': '3072', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '20号枪', 'gun_number': '20', 'gun_type': '1001', 'energy_id': '2004', 'group_num': '', 'status': '1', 'price': '23900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '3074', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '21号枪', 'gun_number': '21', 'gun_type': '1001', 'energy_id': '1406', 'group_num': '', 'status': '1', 'price': '29000', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-50#车用柴油', 'energy_number': '-50', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3075', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '22号枪', 'gun_number': '22', 'gun_type': '1001', 'energy_id': '1503', 'group_num': '', 'status': '1', 'price': '12900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '-10#车用柴油', 'energy_number': '-10', 'energy_type': '2', 'unit': 'L', 'standard_name': '国V', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3076', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '23号枪', 'gun_number': '23', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 1}, {'id': '3077', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '24号枪', 'gun_number': '24', 'gun_type': '1001', 'energy_id': '2007', 'group_num': '', 'status': '1', 'price': '29900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油（国标）', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 1}, {'id': '3078', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '100号枪', 'gun_number': '100', 'gun_type': '1001', 'energy_id': '2007', 'group_num': '', 'status': '1', 'price': '29900', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '95#车用汽油（国标）', 'energy_number': '95', 'energy_type': '1', 'unit': 'L', 'standard_name': '国VI', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '汽油', 'type_id': '1', 'retail_status': 2}, {'id': '3073', 'merchant_type': '1001', 'merchant_id': '10001', 'gun_name': '123号枪', 'gun_number': '123', 'gun_type': '1001', 'energy_id': '1402', 'group_num': '', 'status': '1', 'price': '45800', 'admin_id': '1', 'start_time': '1600933220', 'energy_name': '0#车用柴油', 'energy_number': '1', 'energy_type': '2', 'unit': 'L', 'standard_name': '国IV', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/energy/icon_guo.png?time=1235', 'type_name': '柴油', 'type_id': '2', 'retail_status': 2}], 'request_id': 'b8a3706679cd1c73044f4c28f705fd95'}</t>
-  </si>
-  <si>
-    <t>0.264</t>
+    <t>{"admin_name":"hang081302","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
+  </si>
+  <si>
+    <t>油品</t>
+  </si>
+  <si>
+    <t>获取油品信息</t>
+  </si>
+  <si>
+    <t>/api/energy/energy/get_energy_price_list</t>
+  </si>
+  <si>
+    <t>{"merchant_type":1001,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
   </si>
   <si>
     <t>营销活动</t>
   </si>
   <si>
+    <t>创建优惠券</t>
+  </si>
+  <si>
+    <t>/api/coupon/coupons/create_coupons</t>
+  </si>
+  <si>
+    <t>{"coupon_name":"日常回归-优惠券","coupon_type":1,"price_type":1,"merchant_id":"10002","merchant_type":1001,"coupon_price":"10","coupon_time_type":1,"coupon_start_time":"2020-12-01 00:00:00","coupon_end_time":"2020-12-01 23:59:59","platform":[1,2],"remark":"日常回归点-优惠券创建","desc":{},"amount_rule":[{"limit_type":1,"amount_limit":1,"product_id":["605","604","130","602","3","402","102","2","1","6","4","5","105","108"]}],"date_time_rule":[],"wx_coupons":{"color":"Color020"},"setData":0,"is_open_wx_coupon":2,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0"}</t>
+  </si>
+  <si>
+    <t>激活优惠券</t>
+  </si>
+  <si>
+    <t>/api/coupon/coupons/activation_coupon</t>
+  </si>
+  <si>
+    <t>{"coupon_id":"2506","merchant_type":"1001","merchant_id":"10001","token":"46c32cf591caf138619fbbb77f72ae8002f82ca1"}</t>
+  </si>
+  <si>
+    <t>创建满额送活动</t>
+  </si>
+  <si>
     <t>/api/activities/send-gift-with-purchase-activity/create</t>
   </si>
   <si>
-    <t>{'status': 10005, 'info': '智慧第一加油站在该时间段内已有活动，请勿重复创建', 'reason': '', 'data': [], 'request_id': '59dfdc38da0047cee130bc263cb222c9'}</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>{"status":10005,"info":"\u667a\u6167\u7b2c\u4e00\u52a0\u6cb9\u7ad9\u5728\u8be5\u65f6\u95f4\u6bb5\u5185\u5df2\u6709\u6d3b\u52a8\uff0c\u8bf7\u52ff\u91cd\u590d\u521b\u5efa","reason":"","data":[],"request_id":"59dfdc38da0047cee130bc263cb222c9"}</t>
+    <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+  </si>
+  <si>
+    <t>创建价立减活动</t>
+  </si>
+  <si>
+    <t>/api/activities/price-reduce-activity/create</t>
+  </si>
+  <si>
+    <t>{"activity_name":"日常回归-价立减","arr_merchant_ids":["10001"],"start_time":"2020-12-02 00:00:00","end_time":"2021-01-02 23:59:59","activity_people":"1","user_group_rule":[],"reduce_way":"1","user_limit":"1","limit_day":0,"limit_number":0,"repeat_way":1,"activity_rule":[{"arr_time_rule":{"arr_repeat_time":[],"arr_repeat_day":[0]},"arr_oil_ids":[0],"cost_origin_price":100,"discount_per_litre":30}],"is_oil_card_pay":"0","token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+  </si>
+  <si>
+    <t>创建满额减活动</t>
+  </si>
+  <si>
+    <t>/api/activities/full_reduction_activity/create</t>
+  </si>
+  <si>
+    <t>{"activity_name":"日常回归-满额减","arr_merchant_ids":["10002"],"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 10:25:59","activity_people":"1","full_reduction_type":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"rules":[{"man_award":10,"step_award":1,"cost_type":1}]}],"token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+  </si>
+  <si>
+    <t>创建红包活动</t>
+  </si>
+  <si>
+    <t>/api/activity/red_pack/create</t>
+  </si>
+  <si>
+    <t>{"name":"日常回归-红包","mode_url":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default.png","main_color":"#FED0B0","font_color":"#333","theme_config":{"pageBg":"#F6F7FB","panelHeaderBg":"#D6D6D6","panelBodyBg":"#FFFFFF","panelFt":"#333333","btnBg":"#1E3CFA","btnFt":"#FFFFFF","noDataBtnBg":"#1E3CFA","noDataBtnFt":"#FFFFFF","tipFontColor":"#333333"},"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 11:00:00","num":1,"station_range":"10002","limit":{"getLimit":{"days":1,"times":1,"lastUse":"0"},"userLimit":{"type":"1"},"authLimit":{"type":1},"shareLimit":{"type":"1","title":"免费的优惠券，赶紧抢","pic":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default_share.png"}},"limit_content":"1.有效期：2020-12-02 00:00:00至2020-12-02 11:00:00\n2.红包内容：日常回归-优惠券1x1\n每个红包送10积分\n每个红包送10成长值\n3.可领取用户：所有用户\n4.分享限制：支持分享\n5.领取限制：每个用户1天可领取1次","award":[{"type":1,"value":[{"id":"10347","num":1}]},{"type":2,"value":10},{"type":3,"value":10}],"logo_url":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png","token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
+  </si>
+  <si>
+    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5344', 'admin_name': 'hang0813', 'real_name': '王杭-测试验收第一', 'admin_type': '2', 'mobile': '15717176224', 'last_login_time': '1606884984', 'status': '1', 'create_time': '1606364670', 'update_time': '1606884984', 'token': '34d5febe0d5193c3f17d459f1b2a4286b747962f', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'm</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>获取加油卡列表</t>
+  </si>
+  <si>
+    <t>获取当前站加油卡</t>
+  </si>
+  <si>
+    <t>/api/order/Recharge/rechargeListForSearch</t>
+  </si>
+  <si>
+    <t>{"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
+  </si>
+  <si>
+    <t>{'status': 200, 'info': '操作成功', 'reason': '', 'data': [{'id': '847', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '兼容性测试', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/07/14/17/3978840cb6009104e9d01ec0aa1a.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1594717926', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-07-14 17:12:06', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '767', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '遍历33', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '22', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '22', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '12', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1594033462', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-07-06 19:04:22', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '737', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '双屏机跨站和首充多赠', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/07/02/23/3c035e84012939695ddec7aedbb7.jpeg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '604', 'energy_number': '可兰素'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '500', 'min': '100'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '100', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '300', 'discount': '3', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '500', 'discount': '5', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 1, 'send_money_of_first_recharge': 10, 'create_time': '1593703630', 'update_time': '1593706044', 'status': '0', 'is_del': '0', 'update_date': '2020-07-02 23:27:10', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10001', '10011', '10002'], 'merchant_names': {'10001': '能链第一加油站', '10011': '测试验收第一加油站', '10002': '零管-南山第二加油站'}}, {'id': '574', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '折扣卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '110', 'energy_number': '柴油'}, {'energy_id': '130', 'energy_number': 'LNG'}, {'energy_id': '131', 'energy_number': 'CNG'}, {'energy_id': '402', 'energy_number': '98'}, {'energy_id': '3', 'energy_number': '98'}, {'energy_id': '102', 'energy_number': '98'}, {'energy_id': '405', 'energy_number': '95(会员)'}, {'energy_id': '601', 'energy_number': '95(乙醇)'}, {'energy_id': '2', 'energy_number': '95'}, {'energy_id': '101', 'energy_number': '95'}, {'energy_id': '401', 'energy_number': '95'}, {'energy_id': '109', 'energy_number': '93'}, {'energy_id': '404', 'energy_number': '92(会员)'}, {'energy_id': '600', 'energy_number': '92(乙醇)'}, {'energy_id': '400', 'energy_number': '92'}, {'energy_id': '1', 'energy_number': '92'}, {'energy_id': '100', 'energy_number': '92'}, {'energy_id': '104', 'energy_number': '101'}, {'energy_id': '150', 'energy_number': '0#会员价'}, {'energy_id': '403', 'energy_number': '0'}, {'energy_id': '103', 'energy_number': '0'}, {'energy_id': '4', 'energy_number': '0'}, {'energy_id': '107', 'energy_number': '-20'}, {'energy_id': '151', 'energy_number': '-10#会员价'}, {'energy_id': '5', 'energy_number': '-10'}, {'energy_id': '106', 'energy_number': '-10'}, {'energy_id': '111', 'energy_number': '(高标)95'}, {'energy_id': '105', 'energy_number': '(高标)92'}, {'energy_id': '108', 'energy_number': '(高标)0'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 6, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': 7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1591771915', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-06-10 14:51:55', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '511', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '所得税', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '是', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1591167908', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-06-03 15:05:08', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '510', 'merchant_type': '1001', 'merchant_id': '10011', 'name': 'lin加油卡', 'type': 3, 'card_type': '1', 'style_type': 3, 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/850d0761b6f9d56e95f3ff821598.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1591167836', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-06-03 15:03:56', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '429', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '导入数据功能测试', 'type': 3, 'card_type': '1', 'style_type': '2', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/6d4ce61b09ea92b3fd2cd6066c47.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '23', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '100', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '200', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '500', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1590036429', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-05-21 12:47:09', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '383', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '测试', 'type': 1, 'card_type': '1', 'style_type': '2', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/24/14/6d4ce61b09ea92b3fd2cd6066c47.png', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '1', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1589363448', 'update_time': '0', 'status': '0', 'is_del': '0', 'update_date': '2020-05-13 17:50:48', 'customer_id': '0', 'type_name': '汽油卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '292', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡功能测试验收010', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/30/00/1a0cda98e8b49c3f433029850769.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '2', 'could_use': ['2'], 'rule_des': '6665778899', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '0'}, 'discount_rule': [{'money': '99999.90', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.91', 'discount': 9.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.92', 'discount': 9.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.93', 'discount': 9.6, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.94', 'discount': 9.5, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.95', 'discount': 9.4, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.96', 'discount': 9.3, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.97', 'discount': 9.2, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.98', 'discount': 9.1, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1588175357', 'update_time': '1588178501', 'status': '1', 'is_del': '0', 'update_date': '2020-04-29 23:49:17', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '291', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡功能测试验收008', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/29/23/1a0cda98e8b49c3f433029850769.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '4', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '405', 'energy_number': '95(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}, {'energy_id': '601', 'energy_number': '95(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 7.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 8.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '99999.99', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '3999.99', 'discount': 6.6, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '4999.99', 'discount': 5.5, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '5999.99', 'discount': 8.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1588174085', 'update_time': '0', 'status': '1', 'is_del': '0', 'update_date': '2020-04-29 23:28:05', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '288', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡功能测试007', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/29/22/6a96bee1b99d32346f911e1b16e4.jpg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '2', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '3', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '5', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '101', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '102', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '103', 'energy_number': '0', 'energy_type': '2'}, {'energy_id': '104', 'energy_number': '101', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '106', 'energy_number': '-10', 'energy_type': '2'}, {'energy_id': '107', 'energy_number': '-20', 'energy_type': '2'}, {'energy_id': '108', 'energy_number': '(高标)0', 'energy_type': '2'}, {'energy_id': '109', 'energy_number': '93', 'energy_type': '1'}, {'energy_id': '110', 'energy_number': '柴油', 'energy_type': '2'}, {'energy_id': '111', 'energy_number': '(高标)95', 'energy_type': '1'}, {'energy_id': '130', 'energy_number': 'LNG', 'energy_type': '3'}, {'energy_id': '131', 'energy_number': 'CNG', 'energy_type': '3'}, {'energy_id': '151', 'energy_number': '-10#会员价', 'energy_type': '2'}, {'energy_id': '150', 'energy_number': '0#会员价', 'energy_type': '2'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '401', 'energy_number': '95', 'energy_type': '1'}, {'energy_id': '402', 'energy_number': '98', 'energy_type': '1'}, {'energy_id': '403', 'energy_number': '0', 'energy_type': '2'}], 'carrier': '1', 'invoice_type': '4', 'could_use': ['2'], 'rule_des': '', 'discount': '1', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': '1.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': '299.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': '399.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '3000', 'discount': '499.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '4000', 'discount': '599.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '5000', 'discount': '1999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '6000', 'discount': '2999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '7000', 'discount': '3999.99', 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}], 'money': '0', 'sale_price': '0', 'is_send_money_when_first_recharge': 0, 'send_money_of_first_recharge': 0, 'create_time': '1588170296', 'update_time': '1588171638', 'status': '0', 'is_del': '0', 'update_date': '2020-04-29 22:24:56', 'customer_id': '0', 'type_name': '混合卡', 'merchant_ids': ['10011'], 'merchant_names': {'10011': '测试验收第一加油站'}}, {'id': '273', 'merchant_type': '1001', 'merchant_id': '10011', 'name': '加油卡消费验证测试006', 'type': 3, 'card_type': '1', 'style_type': '0', 'style_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/29/14/4118573a1e58bf486db278636651.jpeg', 'category': '1', 'st_limit': [], 'oil_limit': [{'energy_id': '1', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '100', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '105', 'energy_number': '(高标)92', 'energy_type': '1'}, {'energy_id': '400', 'energy_number': '92', 'energy_type': '1'}, {'energy_id': '404', 'energy_number': '92(会员)', 'energy_type': '1'}, {'energy_id': '600', 'energy_number': '92(乙醇)', 'energy_type': '5'}], 'carrier': '1', 'invoice_type': '1', 'could_use': ['2'], 'rule_des': '', 'discount': '3', 'limit': {'max': '100000', 'min': '0'}, 'amount': {'fixed': '0', 'defined': '1'}, 'discount_rule': [{'money': '500', 'discount': 5, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '1000', 'discount': 5.1, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '2000', 'discount': 9.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '3000', 'discount': 9.9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '4000', 'discount': 9, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '5000', 'discount': 8.8, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '6000', 'discount': 8.7, 'validateStatus': {'moneyStatus': 'success', 'discountStatus': 'success'}}, {'money': '7000', 'discount': 8.6, 'validateStatus</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>创建充值送券活动</t>
+  </si>
+  <si>
+    <t>{'status': 10005, 'info': '智慧第一加油站在该时间段内已有活动，请勿重复创建', 'reason': '', 'data': [], 'request_id': '510965941be5fbaeb4275665406b0644'}</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>{"status":10005,"info":"\u667a\u6167\u7b2c\u4e00\u52a0\u6cb9\u7ad9\u5728\u8be5\u65f6\u95f4\u6bb5\u5185\u5df2\u6709\u6d3b\u52a8\uff0c\u8bf7\u52ff\u91cd\u590d\u521b\u5efa","reason":"","data":[],"request_id":"510965941be5fbaeb4275665406b0644"}</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t>/api/activities/price-reduce-activity/create</t>
+    <t>{"activity_name":"日常回归-充值送券","user_limit":1,"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 12:30:59","activity_rule":[{"arr_oil_card_ids":[0],"recharge_award":[{"recharge_money":1,"arr_coupon_id_amount":{"10347":1}}]}],"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"activity_name":"日常回归-价立减","arr_merchant_ids":["10001"],"start_time":"2020-12-02 00:00:00","end_time":"2021-01-02 23:59:59","activity_people":"1","user_group_rule":[],"reduce_way":"1","user_limit":"1","limit_day":0,"limit_number":0,"repeat_way":1,"activity_rule":[{"arr_time_rule":{"arr_repeat_time":[],"arr_repeat_day":[0]},"arr_oil_ids":[0],"cost_origin_price":100,"discount_per_litre":30}],"is_oil_card_pay":"0","token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+    <t>/api/activities/recharge_send_coupon_activity/create</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>创建价立减活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建满额送活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"activity_name":"日常回归-满额送","arr_merchant_ids":["10001"],"start_time":"2021-01-01 00:00:00","end_time":"2021-01-01 23:59:59","activity_people":"1","user_group_rule":[],"user_limit":"1","limit_day":0,"limit_number":0,"activity_rule":[{"arr_oil_ids":[0],"cost_type":1,"step_award":[{"cost_min":100,"cost_max":1000,"arr_coupon_id_amount":{"2502":1}}]}],"token":"d353b9ab424cdd748e25c97b6e8fff5bf8cca48a","merchant_id":"10001"}</t>
+    <t>{"admin_name":"hang081302","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1034,7 +1104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1167,6 +1237,18 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF2B9E54"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF4588"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1198,6 +1280,30 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF4588"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B9E54"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2B9E54"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1301,7 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1472,6 +1578,9 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,16 +1593,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1505,7 +1611,37 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1873,11 +2009,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -1902,9 +2038,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3856,19 +3992,19 @@
     <col min="23" max="23" width="10.5" style="9" customWidth="1"/>
     <col min="24" max="24" width="15.5" style="9" customWidth="1"/>
     <col min="25" max="25" width="11.83203125" style="9" customWidth="1"/>
-    <col min="26" max="86" width="10.83203125" style="9" customWidth="1"/>
-    <col min="87" max="16384" width="10.83203125" style="9"/>
+    <col min="26" max="95" width="10.83203125" style="9" customWidth="1"/>
+    <col min="96" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="24"/>
@@ -3895,9 +4031,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="24"/>
@@ -4450,19 +4586,19 @@
     <col min="16" max="16" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="9" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="9" customWidth="1"/>
-    <col min="19" max="78" width="10.83203125" style="9" customWidth="1"/>
-    <col min="79" max="16384" width="10.83203125" style="9"/>
+    <col min="19" max="87" width="10.83203125" style="9" customWidth="1"/>
+    <col min="88" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="27"/>
@@ -4482,9 +4618,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="27"/>
@@ -5197,19 +5333,19 @@
     <col min="16" max="16" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="9" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="9" customWidth="1"/>
-    <col min="19" max="69" width="10.83203125" style="9" customWidth="1"/>
-    <col min="70" max="16384" width="10.83203125" style="9"/>
+    <col min="19" max="78" width="10.83203125" style="9" customWidth="1"/>
+    <col min="79" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="27"/>
@@ -5231,9 +5367,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="27"/>
@@ -5338,17 +5474,17 @@
       <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66" t="s">
+      <c r="P4" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5384,17 +5520,17 @@
       <c r="M5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="P5" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66" t="s">
+      <c r="P5" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5429,17 +5565,17 @@
       <c r="M6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="P6" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66" t="s">
+      <c r="P6" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5477,17 +5613,17 @@
       <c r="M7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="O7" s="68" t="s">
+      <c r="O7" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="P7" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66" t="s">
+      <c r="P7" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5525,17 +5661,17 @@
       <c r="M8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="O8" s="69" t="s">
+      <c r="O8" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="P8" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66" t="s">
+      <c r="P8" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5573,17 +5709,17 @@
       <c r="M9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="O9" s="69" t="s">
+      <c r="O9" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66" t="s">
+      <c r="P9" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5621,17 +5757,17 @@
       <c r="M10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="O10" s="68" t="s">
+      <c r="O10" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66" t="s">
+      <c r="P10" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5669,17 +5805,17 @@
       <c r="M11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="68" t="s">
+      <c r="O11" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="P11" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66" t="s">
+      <c r="P11" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5717,17 +5853,17 @@
       <c r="M12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="O12" s="68" t="s">
+      <c r="O12" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="P12" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66" t="s">
+      <c r="P12" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5763,17 +5899,17 @@
       <c r="M13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="O13" s="68" t="s">
+      <c r="O13" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="P13" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66" t="s">
+      <c r="P13" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5811,17 +5947,17 @@
       <c r="M14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="O14" s="68" t="s">
+      <c r="O14" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="P14" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66" t="s">
+      <c r="P14" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5859,17 +5995,17 @@
       <c r="M15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O15" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="P15" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66" t="s">
+      <c r="P15" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5907,17 +6043,17 @@
       <c r="M16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="O16" s="68" t="s">
+      <c r="O16" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="P16" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66" t="s">
+      <c r="P16" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5955,17 +6091,17 @@
       <c r="M17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="O17" s="68" t="s">
+      <c r="O17" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="P17" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66" t="s">
+      <c r="P17" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6003,17 +6139,17 @@
       <c r="M18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="O18" s="68" t="s">
+      <c r="O18" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="P18" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66" t="s">
+      <c r="P18" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6051,17 +6187,17 @@
       <c r="M19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="67" t="s">
+      <c r="N19" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="O19" s="68" t="s">
+      <c r="O19" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="P19" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66" t="s">
+      <c r="P19" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6097,17 +6233,17 @@
       <c r="M20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N20" s="67" t="s">
+      <c r="N20" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="O20" s="68" t="s">
+      <c r="O20" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="P20" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66" t="s">
+      <c r="P20" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6145,17 +6281,17 @@
       <c r="M21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="O21" s="68" t="s">
+      <c r="O21" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="P21" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66" t="s">
+      <c r="P21" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6191,17 +6327,17 @@
       <c r="M22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="O22" s="68" t="s">
+      <c r="O22" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="P22" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66" t="s">
+      <c r="P22" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6237,17 +6373,17 @@
       <c r="M23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="67" t="s">
+      <c r="N23" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="O23" s="68" t="s">
+      <c r="O23" s="64" t="s">
         <v>235</v>
       </c>
-      <c r="P23" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66" t="s">
+      <c r="P23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6283,17 +6419,17 @@
       <c r="M24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="O24" s="68" t="s">
+      <c r="O24" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="P24" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66" t="s">
+      <c r="P24" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6329,17 +6465,17 @@
       <c r="M25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="67" t="s">
+      <c r="N25" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="O25" s="69" t="s">
+      <c r="O25" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="P25" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66" t="s">
+      <c r="P25" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6375,17 +6511,17 @@
       <c r="M26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N26" s="67" t="s">
+      <c r="N26" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="O26" s="68" t="s">
+      <c r="O26" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="P26" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66" t="s">
+      <c r="P26" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6423,17 +6559,17 @@
       <c r="M27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N27" s="67" t="s">
+      <c r="N27" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="O27" s="69" t="s">
+      <c r="O27" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="P27" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66" t="s">
+      <c r="P27" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6471,17 +6607,17 @@
       <c r="M28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N28" s="67" t="s">
+      <c r="N28" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="O28" s="68" t="s">
+      <c r="O28" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="P28" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66" t="s">
+      <c r="P28" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6519,17 +6655,17 @@
       <c r="M29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N29" s="67" t="s">
+      <c r="N29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="O29" s="68" t="s">
+      <c r="O29" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="P29" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66" t="s">
+      <c r="P29" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6565,17 +6701,17 @@
       <c r="M30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="67" t="s">
+      <c r="N30" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="O30" s="68" t="s">
+      <c r="O30" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="P30" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66" t="s">
+      <c r="P30" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6641,19 +6777,19 @@
     <col min="16" max="16" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17" style="9" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="9" customWidth="1"/>
-    <col min="19" max="69" width="10.83203125" style="9" customWidth="1"/>
-    <col min="70" max="16384" width="10.83203125" style="9"/>
+    <col min="19" max="78" width="10.83203125" style="9" customWidth="1"/>
+    <col min="79" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="27"/>
@@ -6673,9 +6809,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="27"/>
@@ -7227,11 +7363,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="27"/>
@@ -7251,9 +7387,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="27"/>
@@ -7358,17 +7494,17 @@
       <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="P4" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63" t="s">
+      <c r="P4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7403,17 +7539,17 @@
       <c r="M5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="O5" s="65" t="s">
+      <c r="O5" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="P5" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63" t="s">
+      <c r="P5" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7449,17 +7585,17 @@
       <c r="M6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="O6" s="65" t="s">
+      <c r="O6" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="P6" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63" t="s">
+      <c r="P6" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7495,17 +7631,17 @@
       <c r="M7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="O7" s="65" t="s">
+      <c r="O7" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="P7" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63" t="s">
+      <c r="P7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7541,17 +7677,17 @@
       <c r="M8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="60" t="s">
         <v>305</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="P8" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63" t="s">
+      <c r="P8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7587,17 +7723,17 @@
       <c r="M9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="62" t="s">
+      <c r="N9" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="P9" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63" t="s">
+      <c r="P9" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7633,17 +7769,17 @@
       <c r="M10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="O10" s="65" t="s">
+      <c r="O10" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="P10" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="63"/>
-      <c r="R10" s="63" t="s">
+      <c r="P10" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7662,10 +7798,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7687,19 +7823,19 @@
     <col min="16" max="16" width="15" style="28" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="10.83203125" style="9" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="9"/>
+    <col min="19" max="32" width="10.83203125" style="9" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="33" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="82" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="27"/>
@@ -7719,9 +7855,9 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="27"/>
@@ -7818,7 +7954,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>112</v>
+        <v>316</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="21"/>
@@ -7827,19 +7963,11 @@
       <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58" t="s">
-        <v>115</v>
-      </c>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
     </row>
     <row r="5" spans="1:18" ht="36" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -7849,13 +7977,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>31</v>
@@ -7864,7 +7992,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -7873,19 +8001,11 @@
       <c r="M5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58" t="s">
-        <v>115</v>
-      </c>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -7895,13 +8015,13 @@
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>31</v>
@@ -7909,49 +8029,37 @@
       <c r="G6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>331</v>
+      <c r="H6" s="53" t="s">
+        <v>292</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="59" t="s">
-        <v>322</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>323</v>
-      </c>
-      <c r="P6" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="R6" s="61" t="s">
-        <v>325</v>
-      </c>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>330</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>31</v>
@@ -7960,22 +8068,304 @@
         <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
-      <c r="K7" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
+      <c r="N7" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="36" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="1:18" ht="36" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="75"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+    </row>
+    <row r="10" spans="1:18" ht="36" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+    </row>
+    <row r="11" spans="1:18" ht="36" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+    </row>
+    <row r="12" spans="1:18" ht="36" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="75"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+    </row>
+    <row r="13" spans="1:18" ht="36" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="75"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+    </row>
+    <row r="14" spans="1:18" ht="36" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7987,5 +8377,317 @@
     <hyperlink ref="E4" r:id="rId1" display="http://106.52.206.103:30020/api/user/Login/login_admin" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52" style="28" customWidth="1"/>
+    <col min="10" max="10" width="39.83203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.1640625" style="28" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="86.5" style="28" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="19" max="32" width="10.83203125" style="9" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="33" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="36" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="79" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="36" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>347</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="36" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="O6" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="P6" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="73" t="s">
+        <v>351</v>
+      </c>
+      <c r="R6" s="73" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="36" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" display="http://106.52.206.103:30020/api/user/Login/login_admin" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Test_File/Test_Case.xlsx
+++ b/Test_File/Test_Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edz/Documents/Python_Frame/Test_File/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AB7BDE-8BDE-1146-A2FF-5DE747EFFB3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89893CA7-BAC3-F347-B522-EEFC27EF4F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="376">
   <si>
     <t>用例名称</t>
   </si>
@@ -1049,9 +1049,6 @@
     <t>{"name":"日常回归-红包","mode_url":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default.png","main_color":"#FED0B0","font_color":"#333","theme_config":{"pageBg":"#F6F7FB","panelHeaderBg":"#D6D6D6","panelBodyBg":"#FFFFFF","panelFt":"#333333","btnBg":"#1E3CFA","btnFt":"#FFFFFF","noDataBtnBg":"#1E3CFA","noDataBtnFt":"#FFFFFF","tipFontColor":"#333333"},"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 11:00:00","num":1,"station_range":"10002","limit":{"getLimit":{"days":1,"times":1,"lastUse":"0"},"userLimit":{"type":"1"},"authLimit":{"type":1},"shareLimit":{"type":"1","title":"免费的优惠券，赶紧抢","pic":"https://web-static-1258898587.cos.ap-guangzhou.myqcloud.com/mp/static/images/redpacket/default_share.png"}},"limit_content":"1.有效期：2020-12-02 00:00:00至2020-12-02 11:00:00\n2.红包内容：日常回归-优惠券1x1\n每个红包送10积分\n每个红包送10成长值\n3.可领取用户：所有用户\n4.分享限制：支持分享\n5.领取限制：每个用户1天可领取1次","award":[{"type":1,"value":[{"id":"10347","num":1}]},{"type":2,"value":10},{"type":3,"value":10}],"logo_url":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/01/10/a8204cd6ce348fab2856fd7b2b4e.png","token":"eab780255b736c0e0eb7c272146c125ff6b566d0","merchant_id":"10002"}</t>
   </si>
   <si>
-    <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5344', 'admin_name': 'hang0813', 'real_name': '王杭-测试验收第一', 'admin_type': '2', 'mobile': '15717176224', 'last_login_time': '1606884984', 'status': '1', 'create_time': '1606364670', 'update_time': '1606884984', 'token': '34d5febe0d5193c3f17d459f1b2a4286b747962f', 'theme_config': {'platform_name': '能链SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '商户平台', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '首页', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '数据', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '员工绩效', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '加油统计', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '查看加油统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '充值统计', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '查看充值统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '下载明细', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '关注统计', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '查看关注统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '整体看板', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看整体看板', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '查看订单概览', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '实时概览', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '查看活动统计', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '导出活动数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '活动分析', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '优惠券统计', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '查看优惠券统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '交易', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '业务', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '支付方式', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '油品', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '油号', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '便利店商品', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '库存', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '概览', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '导出概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '查看概览数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '会员', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '查看会员数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '车辆', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '查看车辆数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '导出车辆认证数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '加油卡统计', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '查看加油卡统计数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '查看积分数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '报表', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '报表列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '下载列表', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '查看', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '下载', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '油站月报', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '导出报表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '客户', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '客户管理', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户标签', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签名称', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '删除客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看标签详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '移除客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '修改客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '查看客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '导出客户标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户分群', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '修改客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '刷新客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '删除客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看客户分群', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '查看分群详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '新增营销活动', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '导出客户分群', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户查询', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '客户列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改客户等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '新增成长值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '发放优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '作废优惠券', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改积分(增减调整)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '客户加标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '修改标签', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '查看数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '导出数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '导入客户', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入记录列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '启用', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '下载错误数据', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '撤回', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '查看导入客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '导入', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员管理', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '固定等级', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级认证列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '审核用户认证', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '下载等级码', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '查看固定等级列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '新增固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '修改固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '删除固定等级', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '动态等级', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '查看动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '新增动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '修改动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '停用动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '删除动态等级规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '基础设置', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '修改基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '删除基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '查看基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '新增基础设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '会员营销', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '会员日', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '生日礼', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '积分', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分规则', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '查看积分规则记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '新增积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '修改积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '删除积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '结束积分规则', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分记录', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '查看客户积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '手动增减积分', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '下载积分记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '积分设置', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '修改积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '查看积分设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '权益卡', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '加油卡管理', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '个人卡客户', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查询客户信息', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '加油卡列表', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改基础信息设置-充值规则设置', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '查看加油卡列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '修改加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '新增加油卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '启用/禁用加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '删除加油卡', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '车队卡客户', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '分配子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '新增车队卡客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户详情', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '销户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看充值消费分配记录', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '查看客户列表', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改客户', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '冻结/解冻', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '充值', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '添加子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '修改子卡', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '营销', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '营销玩法', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '优惠券创建', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'm</t>
-  </si>
-  <si>
     <t>0.719</t>
   </si>
   <si>
@@ -1074,18 +1071,6 @@
   </si>
   <si>
     <t>创建充值送券活动</t>
-  </si>
-  <si>
-    <t>{'status': 10005, 'info': '智慧第一加油站在该时间段内已有活动，请勿重复创建', 'reason': '', 'data': [], 'request_id': '510965941be5fbaeb4275665406b0644'}</t>
-  </si>
-  <si>
-    <t>0.243</t>
-  </si>
-  <si>
-    <t>{"status":10005,"info":"\u667a\u6167\u7b2c\u4e00\u52a0\u6cb9\u7ad9\u5728\u8be5\u65f6\u95f4\u6bb5\u5185\u5df2\u6709\u6d3b\u52a8\uff0c\u8bf7\u52ff\u91cd\u590d\u521b\u5efa","reason":"","data":[],"request_id":"510965941be5fbaeb4275665406b0644"}</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>{"activity_name":"日常回归-充值送券","user_limit":1,"start_time":"2020-12-02 00:00:00","end_time":"2020-12-02 12:30:59","activity_rule":[{"arr_oil_card_ids":[0],"recharge_award":[{"recharge_money":1,"arr_coupon_id_amount":{"10347":1}}]}],"token":"beb333067d261aea173c08941e961b7b9a484de0","merchant_id":"10002"}</t>
@@ -1097,6 +1082,3433 @@
   </si>
   <si>
     <t>{"admin_name":"hang081302","password":"wh19940813","admin_type":2,"login_type":1,"token":""}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/manual/manual/create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建手动发券活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/customer/customer_group/get_user_group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户人群</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前站用户人群</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"customer_group_type":1,"display_rules":"fixed_list,growth_list,user_group,user_tag","merchant_data":[{"merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001,"area_type":3,"key":"10002","_key":0,"title":"零管-南山第二加油站"}],"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{'status': 200, 'info': 'success', 'reason': '', 'data': {'id': '5344', 'admin_name': 'hang0813', 'real_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王杭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试验收第一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'admin_type': '2', 'mobile': '15717176224', 'last_login_time': '1606884984', 'status': '1', 'create_time': '1606364670', 'update_time': '1606884984', 'token': '34d5febe0d5193c3f17d459f1b2a4286b747962f', 'theme_config': {'platform_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能链</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SaaS', 'logo_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/mp/logo/mp-logo.png', 'icon_url': 'https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/favicon/nenglian/favicon.ico'}, 'menu_count': 430, 'menu_list': [{'menu_id': '1', 'menu_type': '2', 'parent_id': '144', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商户平台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '#', 'vue_path': 'mp', 'is_show': '1', 'extend': [], 'vuepath_name': 'mp', 'leve': 1}, {'menu_id': '233', 'menu_type': '2', 'parent_id': '1', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'index', 'is_show': '1', 'extend': [], 'vuepath_name': 'index', 'leve': 2}, {'menu_id': '234', 'menu_type': '2', 'parent_id': '1', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'dmp', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp', 'leve': 2}, {'menu_id': '784', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>员工绩效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'performance', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance', 'leve': 3}, {'menu_id': '785', 'menu_type': '2', 'parent_id': '784', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加油统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'refueling', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling', 'leve': 4}, {'menu_id': '811', 'menu_type': '2', 'parent_id': '785', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看加油统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '812', 'menu_type': '2', 'parent_id': '785', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载明细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-refueling-', 'leve': 5}, {'menu_id': '786', 'menu_type': '2', 'parent_id': '784', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'recharge', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge', 'leve': 4}, {'menu_id': '813', 'menu_type': '2', 'parent_id': '786', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看充值统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '814', 'menu_type': '2', 'parent_id': '786', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载明细</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-recharge-', 'leve': 5}, {'menu_id': '787', 'menu_type': '2', 'parent_id': '784', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关注统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'follow', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow', 'leve': 4}, {'menu_id': '815', 'menu_type': '2', 'parent_id': '787', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看关注统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-performance-follow-', 'leve': 5}, {'menu_id': '245', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview', 'leve': 3}, {'menu_id': '252', 'menu_type': '2', 'parent_id': '245', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实时概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-realtime', 'leve': 4}, {'menu_id': '253', 'menu_type': '2', 'parent_id': '245', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体看板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'dashboard', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard', 'leve': 4}, {'menu_id': '843', 'menu_type': '2', 'parent_id': '253', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看整体看板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '901', 'menu_type': '2', 'parent_id': '253', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看订单概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '902', 'menu_type': '2', 'parent_id': '253', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-overview-dashboard-', 'leve': 5}, {'menu_id': '246', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em', 'leve': 3}, {'menu_id': '256', 'menu_type': '2', 'parent_id': '246', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实时概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'realtime', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-realtime', 'leve': 4}, {'menu_id': '257', 'menu_type': '2', 'parent_id': '246', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics', 'leve': 4}, {'menu_id': '899', 'menu_type': '2', 'parent_id': '257', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看活动统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '900', 'menu_type': '2', 'parent_id': '257', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出活动数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-statistics-', 'leve': 5}, {'menu_id': '258', 'menu_type': '2', 'parent_id': '246', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'analysis', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-analysis', 'leve': 4}, {'menu_id': '393', 'menu_type': '2', 'parent_id': '246', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'coupon', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon', 'leve': 4}, {'menu_id': '400', 'menu_type': '2', 'parent_id': '393', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '428', 'menu_type': '2', 'parent_id': '393', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看优惠券统计数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-em-coupon-', 'leve': 5}, {'menu_id': '247', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'order', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order', 'leve': 3}, {'menu_id': '259', 'menu_type': '2', 'parent_id': '247', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'business', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-business', 'leve': 4}, {'menu_id': '262', 'menu_type': '2', 'parent_id': '247', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'pay', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-order-pay', 'leve': 4}, {'menu_id': '248', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'oil', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil', 'leve': 3}, {'menu_id': '268', 'menu_type': '2', 'parent_id': '248', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'number', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-oil-number', 'leve': 4}, {'menu_id': '249', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>便利店商品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'goods', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods', 'leve': 3}, {'menu_id': '270', 'menu_type': '2', 'parent_id': '249', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-overview', 'leve': 4}, {'menu_id': '272', 'menu_type': '2', 'parent_id': '249', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'stock', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-goods-stock', 'leve': 4}, {'menu_id': '250', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer', 'leve': 3}, {'menu_id': '273', 'menu_type': '2', 'parent_id': '250', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>概览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'overview', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview', 'leve': 4}, {'menu_id': '512', 'menu_type': '2', 'parent_id': '273', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出概览数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '511', 'menu_type': '2', 'parent_id': '273', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看概览数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-overview-', 'leve': 5}, {'menu_id': '274', 'menu_type': '2', 'parent_id': '250', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member', 'leve': 4}, {'menu_id': '592', 'menu_type': '2', 'parent_id': '274', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看会员数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-member-', 'leve': 5}, {'menu_id': '275', 'menu_type': '2', 'parent_id': '250', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'car', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car', 'leve': 4}, {'menu_id': '636', 'menu_type': '2', 'parent_id': '275', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看车辆数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '637', 'menu_type': '2', 'parent_id': '275', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出车辆认证数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-car-', 'leve': 5}, {'menu_id': '296', 'menu_type': '2', 'parent_id': '250', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加油卡统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'statistics', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics', 'leve': 4}, {'menu_id': '533', 'menu_type': '2', 'parent_id': '296', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看加油卡统计数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-statistics-', 'leve': 5}, {'menu_id': '572', 'menu_type': '2', 'parent_id': '250', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit', 'leve': 4}, {'menu_id': '573', 'menu_type': '2', 'parent_id': '572', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看积分数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-customer-credit-', 'leve': 5}, {'menu_id': '251', 'menu_type': '2', 'parent_id': '234', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'report', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report', 'leve': 3}, {'menu_id': '276', 'menu_type': '2', 'parent_id': '251', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报表列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-list', 'leve': 4}, {'menu_id': '277', 'menu_type': '2', 'parent_id': '251', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'download', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download', 'leve': 4}, {'menu_id': '718', 'menu_type': '2', 'parent_id': '277', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '719', 'menu_type': '2', 'parent_id': '277', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-download-', 'leve': 5}, {'menu_id': '759', 'menu_type': '2', 'parent_id': '251', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>油站月报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'monthly', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly', 'leve': 4}, {'menu_id': '760', 'menu_type': '2', 'parent_id': '759', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出报表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'dmp-report-monthly-', 'leve': 5}, {'menu_id': '235', 'menu_type': '2', 'parent_id': '1', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'crm', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm', 'leve': 2}, {'menu_id': '278', 'menu_type': '2', 'parent_id': '235', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'customer', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer', 'leve': 3}, {'menu_id': '284', 'menu_type': '2', 'parent_id': '278', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'tag', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag', 'leve': 4}, {'menu_id': '676', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增客户标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '677', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改客户标签名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '679', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除客户标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '680', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看标签详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '681', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移除客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '682', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改客户标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '683', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增营销活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '684', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看客户标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '685', 'menu_type': '2', 'parent_id': '284', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出客户标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-tag-', 'leve': 5}, {'menu_id': '285', 'menu_type': '2', 'parent_id': '278', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'crowd', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd', 'leve': 4}, {'menu_id': '536', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '537', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '538', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刷新客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '539', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '540', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '552', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看分群详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '896', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增营销活动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-', 'leve': 5}, {'menu_id': '733', 'menu_type': '2', 'parent_id': '285', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出客户分群</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': 'customer/customer_group/export', 'vue_path': '#', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-crowd-#', 'leve': 5}, {'menu_id': '286', 'menu_type': '2', 'parent_id': '278', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户查询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'query', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-query', 'leve': 4}, {'menu_id': '287', 'menu_type': '2', 'parent_id': '278', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list', 'leve': 4}, {'menu_id': '596', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改客户等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '597', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增成长值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '634', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发放优惠券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '635', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作废优惠券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '897', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '898', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增减调整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '703', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户加标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '704', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '705', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '716', 'menu_type': '2', 'parent_id': '287', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导出数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-list-', 'leve': 5}, {'menu_id': '695', 'menu_type': '2', 'parent_id': '278', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'import', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import', 'leve': 4}, {'menu_id': '741', 'menu_type': '2', 'parent_id': '695', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看导入记录列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '742', 'menu_type': '2', 'parent_id': '695', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '743', 'menu_type': '2', 'parent_id': '695', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载错误数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '744', 'menu_type': '2', 'parent_id': '695', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撤回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '745', 'menu_type': '2', 'parent_id': '695', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看导入客户信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '748', 'menu_type': '2', 'parent_id': '695', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>导入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-customer-import-', 'leve': 5}, {'menu_id': '279', 'menu_type': '2', 'parent_id': '235', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'member', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member', 'leve': 3}, {'menu_id': '288', 'menu_type': '2', 'parent_id': '279', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'fixed', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed', 'leve': 4}, {'menu_id': '593', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看固定等级认证列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '594', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核用户认证</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '893', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载等级码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '440', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看固定等级列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '441', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增固定等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '442', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改固定等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '443', 'menu_type': '2', 'parent_id': '288', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除固定等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-fixed-', 'leve': 5}, {'menu_id': '289', 'menu_type': '2', 'parent_id': '279', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'grow', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow', 'leve': 4}, {'menu_id': '444', 'menu_type': '2', 'parent_id': '289', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看动态等级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '445', 'menu_type': '2', 'parent_id': '289', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增动态等级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '446', 'menu_type': '2', 'parent_id': '289', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改动态等级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '447', 'menu_type': '2', 'parent_id': '289', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停用动态等级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '448', 'menu_type': '2', 'parent_id': '289', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除动态等级规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-grow-', 'leve': 5}, {'menu_id': '437', 'menu_type': '2', 'parent_id': '279', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'foundation', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation', 'leve': 4}, {'menu_id': '894', 'menu_type': '2', 'parent_id': '437', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改基础设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '895', 'menu_type': '2', 'parent_id': '437', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除基础设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '438', 'menu_type': '2', 'parent_id': '437', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看基础设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '439', 'menu_type': '2', 'parent_id': '437', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增基础设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-member-foundation-', 'leve': 5}, {'menu_id': '280', 'menu_type': '2', 'parent_id': '235', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'behavior', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior', 'leve': 3}, {'menu_id': '290', 'menu_type': '2', 'parent_id': '280', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会员日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'day', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-day', 'leve': 4}, {'menu_id': '291', 'menu_type': '2', 'parent_id': '280', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生日礼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'birthday', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-behavior-birthday', 'leve': 4}, {'menu_id': '281', 'menu_type': '2', 'parent_id': '235', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'credit', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit', 'leve': 3}, {'menu_id': '292', 'menu_type': '2', 'parent_id': '281', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'rule', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule', 'leve': 4}, {'menu_id': '407', 'menu_type': '2', 'parent_id': '292', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看积分规则记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '408', 'menu_type': '2', 'parent_id': '292', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增积分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '409', 'menu_type': '2', 'parent_id': '292', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改积分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '410', 'menu_type': '2', 'parent_id': '292', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除积分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '411', 'menu_type': '2', 'parent_id': '292', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结束积分规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-rule-', 'leve': 5}, {'menu_id': '293', 'menu_type': '2', 'parent_id': '281', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'record', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record', 'leve': 4}, {'menu_id': '429', 'menu_type': '2', 'parent_id': '293', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看客户积分记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '430', 'menu_type': '2', 'parent_id': '293', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手动增减积分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '717', 'menu_type': '2', 'parent_id': '293', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下载积分记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-record-', 'leve': 5}, {'menu_id': '646', 'menu_type': '2', 'parent_id': '281', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'setting', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting', 'leve': 4}, {'menu_id': '656', 'menu_type': '2', 'parent_id': '646', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改积分设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-setting-', 'leve': 5}, {'menu_id': '647', 'menu_type': '2', 'parent_id': '281', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看积分设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-credit-', 'leve': 4}, {'menu_id': '282', 'menu_type': '2', 'parent_id': '235', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权益卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'rights', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights', 'leve': 3}, {'menu_id': '294', 'menu_type': '2', 'parent_id': '282', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>权益卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'card', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-rights-card', 'leve': 4}, {'menu_id': '283', 'menu_type': '2', 'parent_id': '235', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加油卡管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'prepaid', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid', 'leve': 3}, {'menu_id': '516', 'menu_type': '2', 'parent_id': '283', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个人卡客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'client', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client', 'leve': 4}, {'menu_id': '523', 'menu_type': '2', 'parent_id': '516', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询客户信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '524', 'menu_type': '2', 'parent_id': '516', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看加油卡列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '525', 'menu_type': '2', 'parent_id': '516', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冻结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '526', 'menu_type': '2', 'parent_id': '516', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '527', 'menu_type': '2', 'parent_id': '516', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-client-', 'leve': 5}, {'menu_id': '295', 'menu_type': '2', 'parent_id': '283', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加油卡列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'list', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list', 'leve': 4}, {'menu_id': '514', 'menu_type': '2', 'parent_id': '295', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改基础信息设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值规则设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '528', 'menu_type': '2', 'parent_id': '295', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看加油卡列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '530', 'menu_type': '2', 'parent_id': '295', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改加油卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '892', 'menu_type': '2', 'parent_id': '295', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增加油卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '713', 'menu_type': '2', 'parent_id': '295', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>启用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禁用加油卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '714', 'menu_type': '2', 'parent_id': '295', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除加油卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': ' ', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-list-', 'leve': 5}, {'menu_id': '761', 'menu_type': '2', 'parent_id': '283', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车队卡客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'fleet', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet', 'leve': 4}, {'menu_id': '768', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销户子卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '769', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配子卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '770', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增车队卡客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '771', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看客户详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '772', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '773', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看充值消费分配记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '774', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冻结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解冻子卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '775', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值子卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '762', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看客户列表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '763', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改客户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '764', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冻结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解冻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '765', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>充值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '766', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加子卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '767', 'menu_type': '2', 'parent_id': '761', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改子卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': '', 'is_show': '1', 'extend': [], 'vuepath_name': 'crm-prepaid-fleet-', 'leve': 5}, {'menu_id': '236', 'menu_type': '2', 'parent_id': '1', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'em', 'is_show': '1', 'extend': [], 'vuepath_name': 'em', 'leve': 2}, {'menu_id': '297', 'menu_type': '2', 'parent_id': '236', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营销玩法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'marketing', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing', 'leve': 3}, {'menu_id': '395', 'menu_type': '2', 'parent_id': '297', 'menu_name': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优惠券创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>', 'menu_path': '', 'vue_path': 'add', 'is_show': '1', 'extend': [], 'vuepath_name': 'em-marketing-add', 'leve': 4}, {'menu_id': '886', 'menu_type': '2', 'parent_id': '395', 'm</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"activity_name":"日常回归-手动发券","send_time":"2020-12-02 16:37:19","activity_people":2,"user_group_rule":["2-1"],"coupon_json":[{"coupon_id":"10347","send_num":1}],"notice_type":0,"merchant_type":1001,"token":"ffe05e7da4e30f43162a56cf4e7c60d6ee95a12a","merchant_id":"10002"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户后台接口冒烟测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/wheel/wheel_game/create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"activity_name":"日常回归-幸运抽奖","start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","station_range":[{"appid":"wx73a8de5287159207","merchant_ids":["10002"]}],"activity_type":2,"activity_people":1,"user_group_rule":[],"template_id":"1","activity_title":"幸运抽奖抽抽抽~","activity_desc":"日常回归点-幸运抽奖","default_draw_count":1,"activity_rule":[{"type":1,"detail":[{"oil_ids":[-1],"price_type":1,"money":10}]}],"prize_data":[{"prize_type":1,"prize_name":"一等奖","total_amount":10,"rate":"10","prize_detail":[{"coupon_id":"10347","coupon_name":"创建优惠券-测试1","coupon_price":[10],"num":1,"prize_img":"https://uat-authentication-1258898587.cos.ap-beijing.myqcloud.com/public/2020/12/02/17/a98c69a5d14432b7ae18bb9fe9a2.png"}]},{"prize_type":2,"prize_name":"二等奖","total_amount":100,"rate":"20","prize_detail":{"credit_cnt":1000}},{"prize_type":2,"prize_name":"三等奖","total_amount":200,"rate":"30","prize_detail":{"credit_cnt":500}},{"prize_type":3,"prize_name":"四等奖","total_amount":500,"rate":"40"}],"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建幸运抽奖活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建好友邀请活动</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/invite/invite-activity/create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"activity":{"activity_name":"日常回归-好友邀请","template_ids":0,"page_style":{"homePage":{"headerImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/14/a3e81f14cfa8893cd46ee280c3c2.png","invitationImgList":{"inviteFriends":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/45639060966ff759e9e394e39ae7.png","faceInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/943b48bdd54e7bcb47f626f5789b.png","postersInvite":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/0e196fdd10b1251b5b7eac59a200.png","postersBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/03/16/6836e862788acb42b67414f737b3.png"},"awardRanking":{"firstImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/b05a5c05d0d984f88ef20fae1bdb.png","secondImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/191c6363f9ac6c3972cfa5d82c28.png","thirdImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/16/ab5dc2d794029f74244cd2752686.png","defaultUserImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/06/02/16/76e411d0ab0791739669d470938e.png"}},"myRewardPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2019/12/12/11/6ca03a134e884e84e86e1427bb20.png"},"activityRulesPage":{"bgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/20/7a3f11f089d4ae09235d99928261.png"},"beInvitedPageBgImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191127/14/2ceccbf61842af679219859cb06d.png","beInvitedCouponsImg":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/04/27/15/399d3477946fb1bc53c5a09f3d57.png","icon":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/20191125/15/878aee8e814d3c213224e0e1bf80.png","fontColor":{"activityRulesColor":"#2600AA","shufflingAndReward":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"contentAndTitle":{"mainColor":"#fff","auxiliaryColor":"rgba(255,255,255,0.6)"},"homePageBtnColor":"#733145","otherBtn":{"mainColor":"#2600AA","auxiliaryColor":"rgba(38, 0, 170, 0.6)"},"postersColor":"rgba(51, 51, 51, 1)","auxiliaryBtnColor":"#F0D701"},"btnBg":{"mainBg":"#F0D701","auxiliaryBg":"rgba(240, 215, 1, 0.5)"},"pageBg":{"invitationPageBg":"rgba(16, 1, 61, 1)","beInvitedpageBg":"rgba(16, 1, 61, 1)","rewardListBg":"rgba(16, 1, 61, 1)"},"panelBg":{"mainBg":"rgba(69, 44, 159, 1)","auxiliaryBg":"rgba(56, 33, 138, 1)","gradientBg":"linear-gradient(180deg, rgba(38, 0, 170, 1) 50%, rgba(38, 0, 170, 0) 100%)","otherGradientBg":"linear-gradient(90deg, rgba(104, 63, 199, 1)  50%, rgba(69, 44, 159, 1) 100%)"},"share_img":"https://yy-1258898587.cos.ap-guangzhou.myqcloud.com/public/2020/10/21/15/609ecebd9616fb1d032156f0be5c.png","awardRankingUserInfoBg":{"mainBg":"rgba(0,0,0,0.6)","auxiliaryBg":"rgba(0,0,0,0.3)"}},"start_time":"2020-12-03 00:00:00","end_time":"2021-01-03 23:59:59","stations":[{"title":"零管-南山第二加油站","merchant_id":"10002","merchant_name":"零管-南山第二加油站","merchant_type":1001}],"activityRuleType":2,"activity_rule":"日常回归-好友邀请","share_title":"日常回归-好友邀请","authorize_limit":1,"template_content":"1,2,3","arr_merchant_ids":["10002"]},"inviter_setting":{"inviter_qualification":1,"success_invite_condition":1,"user_group_rule":[],"enable_coupon":1,"coupon_ids_and_amount":[{"coupon_id":"10347","coupon_amount":1,"coupon_name":"创建优惠券-测试1"}],"enable_points":0,"enable_vip_grouth":0,"enable_step_reward":1,"step_reward":[{"step":1,"people_success_invited":"1","enable_coupon":0,"enable_points":1,"points":"10","enable_vip_grouth":1,"vip_grouth_val":"10"}]},"invitee_setting":{"invitee_qualification":2,"enable_coupon":0,"enable_points":1,"points":"20","enable_vip_grouth":1,"vip_grouth_val":"20"},"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/Login/logout</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"b3e78345707f7719dc4f68c135ee055660186b7c","merchant_id":"10002"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"coupon_name":"日常回归-优惠券","coupon_type":1,"price_type":1,"merchant_id":"10002","merchant_type":1001,"coupon_price":"10","coupon_time_type":1,"coupon_start_time":"2020-12-01 00:00:00","coupon_end_time":"2020-12-01 23:59:59","platform":[1,2],"remark":"日常回归点-优惠券创建","desc":{},"amount_rule":[{"limit_type":1,"amount_limit":1,"product_id":["605","604","130","602","3","402","102","2","1","6","4","5","105","108"]}],"date_time_rule":[],"wx_coupons":{"color":"Color020"},"setData":0,"is_open_wx_coupon":2,"token":"eab780255b736c0e0eb7c272146c125ff6b566d0"}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +4516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1306,6 +4718,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -7798,10 +11217,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7832,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
@@ -8053,13 +11472,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>31</v>
@@ -8068,7 +11487,7 @@
         <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
@@ -8078,10 +11497,10 @@
         <v>34</v>
       </c>
       <c r="N7" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O7" s="79" t="s">
         <v>346</v>
-      </c>
-      <c r="O7" s="79" t="s">
-        <v>347</v>
       </c>
       <c r="P7" s="77" t="s">
         <v>34</v>
@@ -8099,13 +11518,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -8114,7 +11533,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
@@ -8123,11 +11542,11 @@
       <c r="M8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -8140,10 +11559,10 @@
         <v>321</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>31</v>
@@ -8152,11 +11571,13 @@
         <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
         <v>34</v>
@@ -8178,10 +11599,10 @@
         <v>321</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
@@ -8190,13 +11611,11 @@
         <v>32</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
         <v>34</v>
@@ -8218,10 +11637,10 @@
         <v>321</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>31</v>
@@ -8230,7 +11649,7 @@
         <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
@@ -8258,10 +11677,10 @@
         <v>321</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
@@ -8270,7 +11689,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
@@ -8298,10 +11717,10 @@
         <v>321</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>31</v>
@@ -8310,7 +11729,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -8338,10 +11757,10 @@
         <v>321</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>31</v>
@@ -8350,7 +11769,7 @@
         <v>32</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -8361,11 +11780,209 @@
       <c r="M14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+    </row>
+    <row r="15" spans="1:18" ht="36" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="71"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+    </row>
+    <row r="16" spans="1:18" ht="36" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+    </row>
+    <row r="17" spans="1:18" ht="36" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+    </row>
+    <row r="18" spans="1:18" ht="36" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="71"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+    </row>
+    <row r="19" spans="1:18" ht="36" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="71"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8383,10 +12000,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8394,7 +12011,7 @@
     <col min="1" max="2" width="9.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.6640625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="97.1640625" style="69" bestFit="1" customWidth="1"/>
@@ -8417,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="C1" s="83"/>
       <c r="D1" s="83"/>
@@ -8539,7 +12156,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -8548,11 +12165,11 @@
       <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="58" t="s">
+        <v>359</v>
+      </c>
+      <c r="O4" s="79" t="s">
         <v>340</v>
-      </c>
-      <c r="O4" s="79" t="s">
-        <v>341</v>
       </c>
       <c r="P4" s="77" t="s">
         <v>34</v>
@@ -8570,13 +12187,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>344</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>31</v>
@@ -8585,7 +12202,7 @@
         <v>32</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -8595,10 +12212,10 @@
         <v>34</v>
       </c>
       <c r="N5" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O5" s="79" t="s">
         <v>346</v>
-      </c>
-      <c r="O5" s="79" t="s">
-        <v>347</v>
       </c>
       <c r="P5" s="77" t="s">
         <v>34</v>
@@ -8610,19 +12227,19 @@
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>353</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>31</v>
@@ -8631,52 +12248,156 @@
         <v>32</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="K6" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="O6" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="73" t="s">
-        <v>351</v>
-      </c>
-      <c r="R6" s="73" t="s">
-        <v>352</v>
-      </c>
+      <c r="N6" s="78"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+    </row>
+    <row r="8" spans="1:18" ht="36" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+    </row>
+    <row r="9" spans="1:18" ht="36" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+    </row>
+    <row r="10" spans="1:18" ht="36" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="2">
